--- a/biology/Botanique/Zanthoxylum_bungeanum/Zanthoxylum_bungeanum.xlsx
+++ b/biology/Botanique/Zanthoxylum_bungeanum/Zanthoxylum_bungeanum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Zanthoxylum bungeanum est une espèce de plantes de la famille des Rutaceae.
 C’est, avec Zanthoxylum simulans, l’une des deux espèces qui produit le poivre du Sichuan ou poivre de Chine.
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Zanthoxylum bungeanum est native de Chine où elle est présente sur tout le territoire, et introduite en Ouzbékistan[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Zanthoxylum bungeanum est native de Chine où elle est présente sur tout le territoire, et introduite en Ouzbékistan.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Zanthoxylum bungeanum a pour synonymes[2],[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Zanthoxylum bungeanum a pour synonymes, :
 Fagara bungei (Planch.) M.Hiroe
 Zanthoxylum bungei Planch.
 Zanthoxylum fraxinoides Hemsl.
@@ -580,9 +596,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (1 novembre 2020)[1] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (1 novembre 2020) (Attention liste brute contenant possiblement des synonymes) :
 Zanthoxylum bungeanum var. bungeanum
 Zanthoxylum bungeanum var. pubescens C.C. Huang
 Zanthoxylum bungeanum var. punctatum C.C. Huang
